--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1394.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1394.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.411893707909832</v>
+        <v>1.187710165977478</v>
       </c>
       <c r="B1">
-        <v>2.471236196818178</v>
+        <v>2.203523635864258</v>
       </c>
       <c r="C1">
-        <v>2.876713214921727</v>
+        <v>6.437413215637207</v>
       </c>
       <c r="D1">
-        <v>3.397032099492614</v>
+        <v>2.304277658462524</v>
       </c>
       <c r="E1">
-        <v>1.512697633507806</v>
+        <v>1.192286729812622</v>
       </c>
     </row>
   </sheetData>
